--- a/Algoritmo_Rota/Planilhas_Unitario/A_Estrela_Haversiano/PLN_42_15.xlsx
+++ b/Algoritmo_Rota/Planilhas_Unitario/A_Estrela_Haversiano/PLN_42_15.xlsx
@@ -454,7 +454,7 @@
         <v>4053</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0542147159576416</v>
+        <v>0.05414485931396484</v>
       </c>
     </row>
   </sheetData>
